--- a/WorkDiary/20180827-20180831.xlsx
+++ b/WorkDiary/20180827-20180831.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,13 +49,38 @@
   </si>
   <si>
     <t>1、工作第2点中涉及到了http的chunked模式，后续需要学习
-2、工作第2点中涉及到Integer.parseInt(String s, int i)，这表示以i进制的形式去解析s，并转换成10进制的int类型数据</t>
+2、工作第2点中涉及到Integer.parseInt(String s, int i)，这表示以i进制的形式去解析s，并转换成10进制的int类型数据
+3、工作第3点中涉及到了各种报文的格式解析过程，后续与拆组包一并整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗留知识点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、工作第1点中，当mode为异步和伪异步时调用HTTPServerConnetor.send()方法，但是该方法中没有对异步方式的处理，因为现在平台默认使用同步方式，没有开放伪异步和异步方式。对switch case理解错误，应该是三种模式都进入该方法中，但是该方法中依然缺少对异步方式的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、http的chunked模式
+2、服务识别基础服务中具体报文格式的解析过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、上下文context的异常存储和获取机制（入栈、出栈）
+2、异常处理服务中的开启异常处理器处理具体流程、获取优先级最高的异常处理器具体流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、整理Terminal处理http请求流程的服务适配流程处理和协议接出流程处理部分
 2、基础服务读协议服务ProtocolReadService源码学习及文档整理
-3、基础服务服务识别ServiceIdentifyService源码学习及文档整理(具体到各报文类型的动态识别，各报文类型具体识别先忽略)</t>
+3、基础服务服务识别服务ServiceIdentifyService源码学习及文档整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、基础服务写协议ProtocolWriteService源码学习及文档整理
+2、基础服务异常处理服务ExceptionHandlerService源码学习及文档整理
+3、基础服务中间服务DefaultBusinessService源码学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,13 +495,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -513,29 +538,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/WorkDiary/20180827-20180831.xlsx
+++ b/WorkDiary/20180827-20180831.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,15 @@
     <t>1、基础服务写协议ProtocolWriteService源码学习及文档整理
 2、基础服务异常处理服务ExceptionHandlerService源码学习及文档整理
 3、基础服务中间服务DefaultBusinessService源码学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、中间服务中关于写入header和cookie的具体流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、基础服务中间服务DefaultBusinessService源码学习与文档整理
+2、基础服务C端拆包ConsumerMessageUnpackService源码学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +510,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -548,7 +557,9 @@
       <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
@@ -576,7 +587,9 @@
       <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
     </row>

--- a/WorkDiary/20180827-20180831.xlsx
+++ b/WorkDiary/20180827-20180831.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,17 +58,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、工作第1点中，当mode为异步和伪异步时调用HTTPServerConnetor.send()方法，但是该方法中没有对异步方式的处理，因为现在平台默认使用同步方式，没有开放伪异步和异步方式。对switch case理解错误，应该是三种模式都进入该方法中，但是该方法中依然缺少对异步方式的处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、http的chunked模式
 2、服务识别基础服务中具体报文格式的解析过程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、上下文context的异常存储和获取机制（入栈、出栈）
-2、异常处理服务中的开启异常处理器处理具体流程、获取优先级最高的异常处理器具体流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -90,6 +81,25 @@
   <si>
     <t>1、基础服务中间服务DefaultBusinessService源码学习与文档整理
 2、基础服务C端拆包ConsumerMessageUnpackService源码学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、工作第1点中，当mode为异步和伪异步时调用HTTPServerConnetor.send()方法，但是该方法中没有对异步方式的处理，因为现在平台默认使用同步方式，没有开放伪异步和异步方式。对switch case理解错误，应该是三种模式都进入该方法中，但是该方法中依然缺少对异步方式的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、上下文context的异常存储和获取机制（入栈、出栈）
+2、异常处理服务中的开启异常处理器处理具体流程、获取优先级最高的异常处理器具体流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、基础服务C端拆包ConsumerMessageUnpackService源码学习及文档整理
+2、基础服务P端拆包ProviderMessageUnpackService源码学习及文档整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、解析json报文部分流程
+2、组成sdo部分流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,10 +517,10 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -552,15 +562,17 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
@@ -571,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -582,15 +594,17 @@
         <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="F5" s="7"/>
     </row>
   </sheetData>

--- a/WorkDiary/20180827-20180831.xlsx
+++ b/WorkDiary/20180827-20180831.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,13 +93,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1、解析json报文部分流程
+2、组成sdo部分流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1、基础服务C端拆包ConsumerMessageUnpackService源码学习及文档整理
 2、基础服务P端拆包ProviderMessageUnpackService源码学习及文档整理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、解析json报文部分流程
-2、组成sdo部分流程</t>
+    <t>1、基础服务C端组包ConsumerMessagePackerService源码学习及文档整理
+2、基础服务P端组包ProviderMessagePackerService源码学习及文档整理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,10 +522,10 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -571,9 +576,11 @@
         <v>14</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
@@ -603,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7"/>
     </row>
